--- a/meta/16-1-1.xlsx
+++ b/meta/16-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -100,56 +100,71 @@
     <t>16.1: Значительно сократить распространенность всех форм насилия и уменьшить показатели смертности от этого явления во всем мире</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1.1: Число жертв умышленных убийств на 100 000 человек в разбивке по полу и возрасту </t>
+    <t>Национальный статистический комитет КР (Отдел демографической статистики)</t>
+  </si>
+  <si>
+    <t>Таипова Т.С.</t>
+  </si>
+  <si>
+    <t>t.taipova@stat.kg, tamarataipova@mail.ru</t>
+  </si>
+  <si>
+    <t>(312) 32 46 36</t>
+  </si>
+  <si>
+    <t>Общее число жертв умышленных убийств, деленное на общее количество населения, в расчете на 100 000 человек</t>
+  </si>
+  <si>
+    <t>Умышленным убийством признается незаконная смерть, причиненная человеку с намерением вызвать смерть или нанести серьезные увечья. (Источник: Международная классификация Преступлений для целей Статистики, ICCS 2015).</t>
   </si>
   <si>
     <t xml:space="preserve"> Данный показатель широко используется на национальном и международном уровнях для оценки самых крайних форм жестоких преступлений, а также показывает явные слабые стороны системы безопасности граждан. Обеспечение безопасности от насилия является необходимым условием для людей, чтобы жить безопасной и активной жизнью, она также необходима для свободного развития общества и экономики. Умышленные убийства происходят во всех странах мира, этот показатель имеет глобальный масштаб.
 Необходимо проводить мониторинг умышленных убийств, чтобы лучше понимать их причины, помыслы и последствия и, в долгосрочной перспективе, разрабатывать эффективные профилактические мероприятия. Если данные верно детализированы (согласно Международной классификации Преступлений для целей Статистики, ICCS 2015), то показатель может определить различные виды насилия, связанного с убийством: межличностные (включая насилие партнера семейное насилие), преступные (в том числе организованная преступность и другие формы преступной деятельности), социально-политические (в том числе терроризм и преступления на почве ненависти).</t>
   </si>
   <si>
+    <t>Источником информации о причинах смерти являются записи в медицинских свидетельствах о смерти, составляемых врачом или средним медицинским персоналом относительно заболевания, несчастного случая, убийства, самоубийства и другого внешнего воздействия, послуживших причиной смерти. Эти документы вместе с актовыми записями о смерти направляются для разработки в органы государственной статистики.</t>
+  </si>
+  <si>
+    <t>Сведения о смертях получаются на основании ежегодной статистической разработки данных, содержащихся в актовых записях о смерти, составляемых органами записи актов гражданского состояния.  Агрегированные данные собираются и обрабатываются областными управлениями статистики и НСК КР.</t>
+  </si>
+  <si>
     <t>Отношение числа умерших от умышленных убийств к среднегодовой численности постоянного населения по текущей оценке. Рассчитывается на 100 000 населения.</t>
   </si>
   <si>
-    <t>Генеральная прокуратура Кыргызской Республики</t>
-  </si>
-  <si>
-    <t>Метикулов А.Ш.</t>
-  </si>
-  <si>
-    <t>542950@mail.ru</t>
-  </si>
-  <si>
-    <t>0-312 567019 (доб. 2017)</t>
-  </si>
-  <si>
-    <t>https://www.prokuror.kg/</t>
-  </si>
-  <si>
-    <t>Показатель рассчитывается как общее число жертв умышленных убийств зафиксированных в текущем году, деленное на общую численность постоянного населения в том же году, в расчете на 100 000 человек.</t>
-  </si>
-  <si>
-    <t>Умышленным убийством признается незаконная смерть, причиненная человеку с намерением вызвать смерть или нанести серьезные увечья. (Источник: Международная классификация Преступлений для целей Статистики, ICCS 2015); ; понятие «население» относится к общей численности жителей данной страны в данном году.</t>
-  </si>
-  <si>
-    <t>Источником информации о количестве совершенных пруступления и проступков являются данные Автоматизированной информационной системы "Единный реестр преступлений и проступков" (далее АИС "ЕРПП") в которую в режиме реального времени вносятся данные о всех поступивших заявлениях граждан о совершенных преступлениях и проступках. Источником данных о количестве жертв торговли людьми является электронный информационный учетный документ (стат.карточка формы №1.0), в которой при регистрации следователи указывают наличие жертв от данного преступления. Эти данные проверяются и уточняются по материалам досудебных производств.</t>
-  </si>
-  <si>
-    <t>Количество зарегистрированных в АИС "ЕРПП" преступлений по ст.ст.130 и 133 УК, минус количество преступлений по ст.130, 133 УК КР, прекращенных по реабилитирующим основаниям, минус количество преступлений, переквалифицированных на другие статьи УК на конец отчетного периода</t>
-  </si>
-  <si>
-    <t>Качество и достоверность информации во многом зависит от качества внесения пользователями информации в АИС "ЕРПП". Для проверки достоверности данных АИС "ЕРПП" они сверяются с материалами досудебных производств.</t>
-  </si>
-  <si>
-    <t>Проводится логический и арифметический контроль путем сличения данных АИС "ЕРПП" с материалами досудебных производств. В необходимых случаях по письменным обращениям пользователей системы вводятся необходимые корректировки.</t>
-  </si>
-  <si>
-    <t>Данные доступны в ограниченном объеме, т.е. каждый пользователь АИС "ЕРПП" имеет определенный доступ к сведениям. Правом внесения изменений и дополнений обладает только УПСУ Генеральной прокуратуры по письменным обращениям пользователей системы, в случае выявления внесения неверных данных. Заявитель имеет возможность в режиме реального времени видеть статус своего обращения, т.е. на какой процессуальной стадии находится его обращение.</t>
-  </si>
-  <si>
-    <t>Агрегация данных по территории: республика, область, район, города республиканского заничения Бишкек и Ош, по категориям пользователей (по правоохранительным органам). В настоящее время в стадии разработки находится форма № 1.П (на потерпевшего) в которой будут предусмотрены сведения необходимые для дезагрегации (пол, возраст, национальность, гражданство, род занятий, сотояние здоровья и др.)</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+    <t>Международная классификация Преступлений для целей Статистики, ICCS 2015 приводит важные разъяснения определения умышленного убийства. В частности, утверждается, что нижеперечисленные виды преступлений также включаются в понятие умышленного убийства:
+- тяжкое убийство
+- убийство чести
+- серьезное нападение, ведущее к смерти
+- смерть в результате террористических действий
+- убийство, относящееся к выкупу
+- женоубийство (феминицид)
+- детоубийство
+- преднамеренное убийство
+- внесудебная казнь
+- убийство, связанное с превышением полномочий представителями закона.
+Кроме того, классификация дает определение, как отличить умышленные убийства, убийства, напрямую связанные с войной/конфликтами и другие убийства, которые равносильны военным преступлениям.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проводится логический и арифметический контроль отчетных данных. Процедура проверки правильности данных в актовых записях о смерти осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. Корректировка проставленных кодов причин смерти на соответствие диагнозам, записанным в актовой записи о смерти, согласно МКБ-10. Анализ выходных таблиц по причинам смерти.</t>
+  </si>
+  <si>
+    <t>Данные по смертности от самоубийств публикуются в статистических сборниках "Женщины и мужчины КР", «Социальные тенденции КР», "Статистический ежегодник КР", "Кыргызстан в цифрах", размещаются на сайте НСК.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> По территории - республика, область, район и по полу.</t>
+  </si>
+  <si>
+    <t>Национальное определение показателя, используемое в статистике, соответствует его международному определению. Кодирование и разработка данных об умерших по причинам смерти производятся органами государственной статистики на основании Международной статистической классификации болезней и причин смерти 10-го пересмотра (МКБ-10) Всемирной организации здравоохранения (ВОЗ), начиная с отчета за 2000г. По соглашению с НСК база данных по смертности передается Центру электронного здравоохранения КР при Министерстве здравоохранения: Форма 2 «Сведения о числе родившихся, браков, разводов и умерших по причинам смерти» – ежемесячно, с отставанием на 1,5 мес. от отчетного месяца и Форма С52 «Смертность населения по причинам смерти» – ежегодно, в июне месяце года, следующего за отчетным годом.</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io 
+Ссылки на НПА и методологию: http://www.stat.kg/u/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники: «Социальные тенденции КР», «Женщины и мужчины КР», «Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1.1 Число жертв умышленных убийств на 100 000 человек в разбивке по полу и возрасту </t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -251,10 +266,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -570,7 +585,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +605,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -598,7 +613,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -606,8 +621,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,31 +636,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,23 +682,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,12 +707,12 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -718,24 +733,24 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,34 +759,36 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
